--- a/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CF-0.5-400" sheetId="1" r:id="rId1"/>
-    <sheet name="CF-1.0-400" sheetId="2" r:id="rId4"/>
-    <sheet name="CF-1.5-400" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 CF-0.5-400  0-1-200-80" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CF-1.0-400  0-1-200-80" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 CF-1.5-400  0-1-200-80" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -105,7 +105,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CF-0.5-400</a:t>
+              <a:t>Izoterma adsorpcji probki CF-0.5-400 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CF-0.5-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CF-0.5-400  0-1-200-80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CF-0.5-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CF-0.5-400  0-1-200-80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -182,6 +182,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -251,6 +253,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -415,7 +419,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CF-1.0-400</a:t>
+              <a:t>Izoterma adsorpcji probki CF-1.0-400 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -474,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CF-1.0-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CF-1.0-400  0-1-200-80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CF-1.0-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CF-1.0-400  0-1-200-80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -492,6 +496,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -561,6 +567,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -725,7 +733,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CF-1.5-400</a:t>
+              <a:t>Izoterma adsorpcji probki CF-1.5-400 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -784,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CF-1.5-400'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CF-1.5-400  0-1-200-80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CF-1.5-400'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CF-1.5-400  0-1-200-80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -802,6 +810,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -871,6 +881,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
@@ -3099,7 +3099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3120,277 +3120,301 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0097</v>
+        <v>0.2304</v>
       </c>
       <c r="B3" s="0">
-        <v>246.4291</v>
+        <v>361.2822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1702</v>
+        <v>0.3013</v>
       </c>
       <c r="B4" s="0">
-        <v>349.8096</v>
+        <v>368.9305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.2304</v>
+        <v>0.3246</v>
       </c>
       <c r="B5" s="0">
-        <v>361.2822</v>
+        <v>371.9899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.3013</v>
+        <v>0.3499</v>
       </c>
       <c r="B6" s="0">
-        <v>368.9305</v>
+        <v>372.7547</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.3246</v>
+        <v>0.3907</v>
       </c>
       <c r="B7" s="0">
-        <v>371.9899</v>
+        <v>375.0492</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.3499</v>
+        <v>0.4519</v>
       </c>
       <c r="B8" s="0">
-        <v>372.7547</v>
+        <v>378.555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3907</v>
+        <v>0.4723</v>
       </c>
       <c r="B9" s="0">
-        <v>375.0492</v>
+        <v>378.7845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4023</v>
+        <v>0.4903</v>
       </c>
       <c r="B10" s="0">
-        <v>375.4317</v>
+        <v>380.5311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4519</v>
+        <v>0.5113</v>
       </c>
       <c r="B11" s="0">
-        <v>378.1086</v>
+        <v>380.6161</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4723</v>
+        <v>0.5604</v>
       </c>
       <c r="B12" s="0">
-        <v>378.338</v>
+        <v>382.1662</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.4898</v>
+        <v>0.5904</v>
       </c>
       <c r="B13" s="0">
-        <v>379.6383</v>
+        <v>383.144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5102</v>
+        <v>0.6071</v>
       </c>
       <c r="B14" s="0">
-        <v>379.7232</v>
+        <v>383.5905</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5587</v>
+        <v>0.6517</v>
       </c>
       <c r="B15" s="0">
-        <v>382.6126</v>
+        <v>384.2273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5927</v>
+        <v>0.7009</v>
       </c>
       <c r="B16" s="0">
-        <v>382.6976</v>
+        <v>385.757</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6083</v>
+        <v>0.714</v>
       </c>
       <c r="B17" s="0">
-        <v>382.6976</v>
+        <v>385.757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.65</v>
+        <v>0.751</v>
       </c>
       <c r="B18" s="0">
-        <v>384.2273</v>
+        <v>386.6498</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7015</v>
+        <v>0.7705</v>
       </c>
       <c r="B19" s="0">
-        <v>385.757</v>
+        <v>386.8402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.7151</v>
+        <v>0.7914</v>
       </c>
       <c r="B20" s="0">
-        <v>385.757</v>
+        <v>387.2866</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.751</v>
+        <v>0.8108</v>
       </c>
       <c r="B21" s="0">
-        <v>385.757</v>
+        <v>387.7331</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.7705</v>
+        <v>0.8415</v>
       </c>
       <c r="B22" s="0">
-        <v>387.2866</v>
+        <v>387.7331</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.7909</v>
+        <v>0.8715</v>
       </c>
       <c r="B23" s="0">
-        <v>387.2866</v>
+        <v>388.8163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.8103</v>
+        <v>0.9113</v>
       </c>
       <c r="B24" s="0">
-        <v>387.2866</v>
+        <v>389.2627</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.8404</v>
+        <v>0.9348</v>
       </c>
       <c r="B25" s="0">
-        <v>387.2866</v>
+        <v>389.3477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8715</v>
+        <v>0.9582</v>
       </c>
       <c r="B26" s="0">
-        <v>388.8163</v>
+        <v>389.8996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9113</v>
+        <v>0.9755</v>
       </c>
       <c r="B27" s="0">
-        <v>388.8163</v>
+        <v>391.0714</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9336</v>
+        <v>0.9902</v>
       </c>
       <c r="B28" s="0">
-        <v>388.9013</v>
+        <v>391.0714</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9599</v>
+        <v>0.171</v>
       </c>
       <c r="B29" s="0">
-        <v>390.346</v>
+        <v>349.5536</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.9793</v>
+        <v>0.1307</v>
       </c>
       <c r="B30" s="0">
-        <v>390.5754</v>
+        <v>339.7321</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.9948</v>
+        <v>0.1194</v>
       </c>
       <c r="B31" s="0">
-        <v>391.1108</v>
+        <v>335.7143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.0593</v>
+        <v>0.1092</v>
       </c>
       <c r="B32" s="0">
-        <v>306.25</v>
+        <v>332.5893</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.0944</v>
+        <v>0.099</v>
       </c>
       <c r="B33" s="0">
-        <v>325</v>
+        <v>328.5714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.0751</v>
+        <v>0.0899</v>
       </c>
       <c r="B34" s="0">
-        <v>316.9643</v>
+        <v>322.7679</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.1126</v>
+        <v>0.0802</v>
       </c>
       <c r="B35" s="0">
-        <v>332.1429</v>
+        <v>317.8571</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.1285</v>
+        <v>0.0706</v>
       </c>
       <c r="B36" s="0">
-        <v>339.2857</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>312.9464</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0598</v>
+      </c>
+      <c r="B37" s="0">
+        <v>307.1429</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0507</v>
+      </c>
+      <c r="B38" s="0">
+        <v>299.5536</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0098</v>
+      </c>
+      <c r="B39" s="0">
+        <v>248.2143</v>
+      </c>
+    </row>
+    <row r="40"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3399,7 +3423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3420,429 +3444,485 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0087</v>
+        <v>0.1887</v>
       </c>
       <c r="B3" s="0">
-        <v>241.2792</v>
+        <v>408.2432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0167</v>
+        <v>0.2101</v>
       </c>
       <c r="B4" s="0">
-        <v>259.7269</v>
+        <v>419.1294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0314</v>
+        <v>0.2296</v>
       </c>
       <c r="B5" s="0">
-        <v>286.4458</v>
+        <v>429.5821</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0623</v>
+        <v>0.249</v>
       </c>
       <c r="B6" s="0">
-        <v>316.6348</v>
+        <v>439.8309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1693</v>
+        <v>0.2685</v>
       </c>
       <c r="B7" s="0">
-        <v>395.8528</v>
+        <v>449.009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1887</v>
+        <v>0.2894</v>
       </c>
       <c r="B8" s="0">
-        <v>408.2432</v>
+        <v>458.5456</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2101</v>
+        <v>0.1694</v>
       </c>
       <c r="B9" s="0">
-        <v>419.1294</v>
+        <v>396.4286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2296</v>
+        <v>0.1501</v>
       </c>
       <c r="B10" s="0">
-        <v>429.5821</v>
+        <v>384.8214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.249</v>
+        <v>0.1388</v>
       </c>
       <c r="B11" s="0">
-        <v>439.8309</v>
+        <v>377.6786</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2685</v>
+        <v>0.1274</v>
       </c>
       <c r="B12" s="0">
-        <v>449.009</v>
+        <v>370.9821</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2882</v>
+        <v>0.1177</v>
       </c>
       <c r="B13" s="0">
-        <v>455.867</v>
+        <v>363.8393</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3073</v>
+        <v>0.1064</v>
       </c>
       <c r="B14" s="0">
-        <v>465.0706</v>
+        <v>354.9107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3275</v>
+        <v>0.0962</v>
       </c>
       <c r="B15" s="0">
-        <v>472.0136</v>
+        <v>347.3214</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3462</v>
+        <v>0.0865</v>
       </c>
       <c r="B16" s="0">
-        <v>478.2258</v>
+        <v>339.2857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3656</v>
+        <v>0.0752</v>
       </c>
       <c r="B17" s="0">
-        <v>484.421</v>
+        <v>332.1429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3851</v>
+        <v>0.0667</v>
       </c>
       <c r="B18" s="0">
-        <v>489.6218</v>
+        <v>323.6607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.405</v>
+        <v>0.057</v>
       </c>
       <c r="B19" s="0">
-        <v>494.1939</v>
+        <v>315.1786</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4249</v>
+        <v>0.049</v>
       </c>
       <c r="B20" s="0">
-        <v>496.8496</v>
+        <v>306.6964</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4434</v>
+        <v>0.0388</v>
       </c>
       <c r="B21" s="0">
-        <v>501.6298</v>
+        <v>295.5357</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4628</v>
+        <v>0.0286</v>
       </c>
       <c r="B22" s="0">
-        <v>504.6127</v>
+        <v>281.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4839</v>
+        <v>0.0184</v>
       </c>
       <c r="B23" s="0">
-        <v>507.3661</v>
+        <v>265.1786</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5018</v>
+        <v>0.0138</v>
       </c>
       <c r="B24" s="0">
-        <v>509.3906</v>
+        <v>253.5714</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5206</v>
+        <v>0.0092</v>
       </c>
       <c r="B25" s="0">
-        <v>511.8014</v>
+        <v>237.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5389</v>
+        <v>0.3101</v>
       </c>
       <c r="B26" s="0">
-        <v>514.0857</v>
+        <v>466.0714</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5592</v>
+        <v>0.3305</v>
       </c>
       <c r="B27" s="0">
-        <v>516.7527</v>
+        <v>473.2143</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5798</v>
+        <v>0.351</v>
       </c>
       <c r="B28" s="0">
-        <v>518.1248</v>
+        <v>479.9107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5982</v>
+        <v>0.3708</v>
       </c>
       <c r="B29" s="0">
-        <v>519.8766</v>
+        <v>486.1607</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6167</v>
+        <v>0.3907</v>
       </c>
       <c r="B30" s="0">
-        <v>520.839</v>
+        <v>490.625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6377</v>
+        <v>0.4105</v>
       </c>
       <c r="B31" s="0">
-        <v>522.8158</v>
+        <v>495.0893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6571</v>
+        <v>0.4304</v>
       </c>
       <c r="B32" s="0">
-        <v>524.0395</v>
+        <v>499.5536</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.6765</v>
+        <v>0.4502</v>
       </c>
       <c r="B33" s="0">
-        <v>526.1811</v>
+        <v>503.125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6959</v>
+        <v>0.4706</v>
       </c>
       <c r="B34" s="0">
-        <v>527.3283</v>
+        <v>505.8036</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7154</v>
+        <v>0.4905</v>
       </c>
       <c r="B35" s="0">
-        <v>529.3169</v>
+        <v>508.0357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7341</v>
+        <v>0.5109</v>
       </c>
       <c r="B36" s="0">
-        <v>529.4189</v>
+        <v>511.1607</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.7535</v>
+        <v>0.5313</v>
       </c>
       <c r="B37" s="0">
-        <v>530.2524</v>
+        <v>513.8393</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7727</v>
+        <v>0.5511</v>
       </c>
       <c r="B38" s="0">
-        <v>531.127</v>
+        <v>515.1786</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7931</v>
+        <v>0.571</v>
       </c>
       <c r="B39" s="0">
-        <v>532.1686</v>
+        <v>516.9643</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.8128</v>
+        <v>0.592</v>
       </c>
       <c r="B40" s="0">
-        <v>532.6567</v>
+        <v>518.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8322</v>
+        <v>0.6112</v>
       </c>
       <c r="B41" s="0">
-        <v>535.0393</v>
+        <v>520.9821</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.8506</v>
+        <v>0.6311</v>
       </c>
       <c r="B42" s="0">
-        <v>536.1518</v>
+        <v>522.3214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.8707</v>
+        <v>0.6509</v>
       </c>
       <c r="B43" s="0">
-        <v>536.6385</v>
+        <v>523.6607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.8899</v>
+        <v>0.6708</v>
       </c>
       <c r="B44" s="0">
-        <v>537.2585</v>
+        <v>525</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.91</v>
+        <v>0.6912</v>
       </c>
       <c r="B45" s="0">
-        <v>538.0233</v>
+        <v>526.7857</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9297</v>
+        <v>0.7116</v>
       </c>
       <c r="B46" s="0">
-        <v>538.9156</v>
+        <v>528.125</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.9485</v>
+        <v>0.732</v>
       </c>
       <c r="B47" s="0">
-        <v>540.8659</v>
+        <v>529.4643</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.9686</v>
+        <v>0.732</v>
       </c>
       <c r="B48" s="0">
-        <v>540.4453</v>
+        <v>529.4643</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.988</v>
+        <v>0.7507</v>
       </c>
       <c r="B49" s="0">
-        <v>541.8475</v>
+        <v>530.3571</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.999</v>
+        <v>0.7706</v>
       </c>
       <c r="B50" s="0">
-        <v>543.3134</v>
+        <v>531.25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>0.149</v>
+        <v>0.7915</v>
       </c>
       <c r="B51" s="0">
-        <v>383.9286</v>
+        <v>532.5893</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>0.1183</v>
+        <v>0.8119</v>
       </c>
       <c r="B52" s="0">
-        <v>360.7143</v>
+        <v>532.5893</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>0.1319</v>
+        <v>0.8318</v>
       </c>
       <c r="B53" s="0">
-        <v>371.4286</v>
+        <v>534.375</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>0.0933</v>
+        <v>0.8522</v>
       </c>
       <c r="B54" s="0">
-        <v>342.8571</v>
+        <v>535.7143</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>0.0422</v>
+        <v>0.872</v>
       </c>
       <c r="B55" s="0">
-        <v>298.2143</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>537.0536</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.8908</v>
+      </c>
+      <c r="B56" s="0">
+        <v>537.9464</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.9117</v>
+      </c>
+      <c r="B57" s="0">
+        <v>538.8393</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.9333</v>
+      </c>
+      <c r="B58" s="0">
+        <v>539.7321</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.9526</v>
+      </c>
+      <c r="B59" s="0">
+        <v>540.625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.9718</v>
+      </c>
+      <c r="B60" s="0">
+        <v>542.4107</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.9837</v>
+      </c>
+      <c r="B61" s="0">
+        <v>542.8571</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.9939</v>
+      </c>
+      <c r="B62" s="0">
+        <v>543.75</v>
+      </c>
+    </row>
+    <row r="63"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -3851,7 +3931,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3872,277 +3952,333 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0072</v>
+        <v>0.1413</v>
       </c>
       <c r="B3" s="0">
-        <v>237.1367</v>
+        <v>386.6328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0273</v>
+        <v>0.1703</v>
       </c>
       <c r="B4" s="0">
-        <v>282.8864</v>
+        <v>408.1783</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0513</v>
+        <v>0.1894</v>
       </c>
       <c r="B5" s="0">
-        <v>310.233</v>
+        <v>421.664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0748</v>
+        <v>0.2306</v>
       </c>
       <c r="B6" s="0">
-        <v>328.7319</v>
+        <v>449.5176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0965</v>
+        <v>0.2507</v>
       </c>
       <c r="B7" s="0">
-        <v>349.3268</v>
+        <v>462.5466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1201</v>
+        <v>0.2903</v>
       </c>
       <c r="B8" s="0">
-        <v>367.1459</v>
+        <v>489.4079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1447</v>
+        <v>0.3311</v>
       </c>
       <c r="B9" s="0">
-        <v>386.1863</v>
+        <v>515.4832</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1703</v>
+        <v>0.3507</v>
       </c>
       <c r="B10" s="0">
-        <v>406.839</v>
+        <v>528.986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1917</v>
+        <v>0.3901</v>
       </c>
       <c r="B11" s="0">
-        <v>421.2176</v>
+        <v>553.6925</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2306</v>
+        <v>0.4511</v>
       </c>
       <c r="B12" s="0">
-        <v>449.9641</v>
+        <v>589.2904</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2529</v>
+        <v>0.4716</v>
       </c>
       <c r="B13" s="0">
-        <v>462.5466</v>
+        <v>599.8099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2909</v>
+        <v>0.5112</v>
       </c>
       <c r="B14" s="0">
-        <v>488.0686</v>
+        <v>619.4891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3317</v>
+        <v>0.552</v>
       </c>
       <c r="B15" s="0">
-        <v>516.376</v>
+        <v>638.7865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3541</v>
+        <v>0.5917</v>
       </c>
       <c r="B16" s="0">
-        <v>528.0932</v>
+        <v>655.7249</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3907</v>
+        <v>0.6118</v>
       </c>
       <c r="B17" s="0">
-        <v>553.6925</v>
+        <v>663.1509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4483</v>
+        <v>0.6511</v>
       </c>
       <c r="B18" s="0">
-        <v>590.1833</v>
+        <v>678.8092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4727</v>
+        <v>0.6712</v>
       </c>
       <c r="B19" s="0">
-        <v>598.9171</v>
+        <v>684.5788</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.5106</v>
+        <v>0.7114</v>
       </c>
       <c r="B20" s="0">
-        <v>618.1498</v>
+        <v>698.9733</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5514</v>
+        <v>0.7516</v>
       </c>
       <c r="B21" s="0">
-        <v>637.4472</v>
+        <v>712.2109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5923</v>
+        <v>0.7917</v>
       </c>
       <c r="B22" s="0">
-        <v>655.7249</v>
+        <v>724.4183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6146</v>
+        <v>0.8116</v>
       </c>
       <c r="B23" s="0">
-        <v>662.7045</v>
+        <v>731.1742</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.6506</v>
+        <v>0.8516</v>
       </c>
       <c r="B24" s="0">
-        <v>677.9164</v>
+        <v>743.9165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6729</v>
+        <v>0.8724</v>
       </c>
       <c r="B25" s="0">
-        <v>684.5788</v>
+        <v>749.5011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.7108</v>
+        <v>0.9116</v>
       </c>
       <c r="B26" s="0">
-        <v>697.634</v>
+        <v>760.7143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7516</v>
+        <v>0.9326</v>
       </c>
       <c r="B27" s="0">
-        <v>710.8716</v>
+        <v>766.5179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7905</v>
+        <v>0.9587</v>
       </c>
       <c r="B28" s="0">
-        <v>723.9719</v>
+        <v>775.8929</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8138</v>
+        <v>0.9728</v>
       </c>
       <c r="B29" s="0">
-        <v>730.2813</v>
+        <v>776.3393</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8527</v>
+        <v>0.9836</v>
       </c>
       <c r="B30" s="0">
-        <v>743.9165</v>
+        <v>780.3571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8741</v>
+        <v>0.9927</v>
       </c>
       <c r="B31" s="0">
-        <v>749.0546</v>
+        <v>782.5893</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.911</v>
+        <v>0.1507</v>
       </c>
       <c r="B32" s="0">
-        <v>760.7331</v>
+        <v>394.1964</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.9363</v>
+        <v>0.1314</v>
       </c>
       <c r="B33" s="0">
-        <v>767.9696</v>
+        <v>379.4643</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9616</v>
+        <v>0.1212</v>
       </c>
       <c r="B34" s="0">
-        <v>776.7064</v>
+        <v>372.3214</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9868</v>
+        <v>0.1109</v>
       </c>
       <c r="B35" s="0">
-        <v>780.9424</v>
+        <v>364.2857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.1081</v>
+        <v>0.1013</v>
       </c>
       <c r="B36" s="0">
-        <v>360.7143</v>
-      </c>
-    </row>
-    <row r="37"/>
+        <v>356.25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B37" s="0">
+        <v>347.7679</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.0809</v>
+      </c>
+      <c r="B38" s="0">
+        <v>338.8393</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.0706</v>
+      </c>
+      <c r="B39" s="0">
+        <v>329.4643</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.0598</v>
+      </c>
+      <c r="B40" s="0">
+        <v>319.1964</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.049</v>
+      </c>
+      <c r="B41" s="0">
+        <v>308.0357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.0292</v>
+      </c>
+      <c r="B42" s="0">
+        <v>283.0357</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.0092</v>
+      </c>
+      <c r="B43" s="0">
+        <v>237.9464</v>
+      </c>
+    </row>
+    <row r="44"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 122 A Study of the/Data122_all_graphs_excel.xlsx
@@ -5,9 +5,9 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 CF-0.5-400  0-1-200-80" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 CF-1.0-400  0-1-200-80" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 CF-1.5-400  0-1-200-80" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 CF-0.5-400  0&amp;1&amp;200&amp;80" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CF-1.0-400  0&amp;1&amp;200&amp;80" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 CF-1.5-400  0&amp;1&amp;200&amp;80" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -164,12 +164,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-0.5-400  0-1-200-80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CF-0.5-400  0&amp;1&amp;200&amp;80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-0.5-400  0-1-200-80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CF-0.5-400  0&amp;1&amp;200&amp;80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -478,12 +478,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-1.0-400  0-1-200-80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CF-1.0-400  0&amp;1&amp;200&amp;80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-1.0-400  0-1-200-80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CF-1.0-400  0&amp;1&amp;200&amp;80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -792,12 +792,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-1.5-400  0-1-200-80'!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CF-1.5-400  0&amp;1&amp;200&amp;80'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CF-1.5-400  0-1-200-80'!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CF-1.5-400  0&amp;1&amp;200&amp;80'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
